--- a/resultsEST100-199.xlsx
+++ b/resultsEST100-199.xlsx
@@ -1861,13 +1861,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>25329</v>
+        <v>10886</v>
       </c>
       <c r="C102" t="n">
-        <v>60.00460410118103</v>
+        <v>12.69341087341309</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1875,10 +1875,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4771</v>
+        <v>4741</v>
       </c>
       <c r="C103" t="n">
-        <v>3.388139009475708</v>
+        <v>2.147418975830078</v>
       </c>
       <c r="D103" t="n">
         <v>1</v>
@@ -1889,10 +1889,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>21810</v>
+        <v>5075</v>
       </c>
       <c r="C104" t="n">
-        <v>46.15521955490112</v>
+        <v>3.13793683052063</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
@@ -1903,10 +1903,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3017</v>
+        <v>12309</v>
       </c>
       <c r="C105" t="n">
-        <v>2.663637399673462</v>
+        <v>15.35720777511597</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -1917,10 +1917,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5800</v>
+        <v>8695</v>
       </c>
       <c r="C106" t="n">
-        <v>6.284432172775269</v>
+        <v>9.823531150817871</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -1931,10 +1931,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5313</v>
+        <v>6545</v>
       </c>
       <c r="C107" t="n">
-        <v>4.787086486816406</v>
+        <v>6.852670669555664</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -1945,10 +1945,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4315</v>
+        <v>2781</v>
       </c>
       <c r="C108" t="n">
-        <v>4.367569923400879</v>
+        <v>1.830486059188843</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
@@ -1959,10 +1959,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9293</v>
+        <v>4635</v>
       </c>
       <c r="C109" t="n">
-        <v>12.09359741210938</v>
+        <v>3.624930620193481</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -1973,10 +1973,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5422</v>
+        <v>10072</v>
       </c>
       <c r="C110" t="n">
-        <v>5.924988985061646</v>
+        <v>13.06898617744446</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -1987,10 +1987,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>19617</v>
+        <v>10213</v>
       </c>
       <c r="C111" t="n">
-        <v>37.71627044677734</v>
+        <v>13.95496845245361</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
@@ -2001,13 +2001,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11160</v>
+        <v>23397</v>
       </c>
       <c r="C112" t="n">
-        <v>16.15869474411011</v>
+        <v>60.00241875648499</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2015,10 +2015,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12867</v>
+        <v>6675</v>
       </c>
       <c r="C113" t="n">
-        <v>18.30840539932251</v>
+        <v>5.696521759033203</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -2029,10 +2029,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9534</v>
+        <v>11804</v>
       </c>
       <c r="C114" t="n">
-        <v>10.80723762512207</v>
+        <v>13.74366140365601</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
@@ -2043,10 +2043,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>13404</v>
+        <v>3195</v>
       </c>
       <c r="C115" t="n">
-        <v>21.10778570175171</v>
+        <v>1.783372640609741</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -2057,10 +2057,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>14556</v>
+        <v>3905</v>
       </c>
       <c r="C116" t="n">
-        <v>23.76967906951904</v>
+        <v>2.366245031356812</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
@@ -2071,10 +2071,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5185</v>
+        <v>8602</v>
       </c>
       <c r="C117" t="n">
-        <v>5.072102546691895</v>
+        <v>8.000714540481567</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -2085,13 +2085,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>24259</v>
+        <v>14408</v>
       </c>
       <c r="C118" t="n">
-        <v>60.00440573692322</v>
+        <v>20.44626379013062</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -2099,10 +2099,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>20354</v>
+        <v>12037</v>
       </c>
       <c r="C119" t="n">
-        <v>43.62156534194946</v>
+        <v>14.95835471153259</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
@@ -2113,10 +2113,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>15310</v>
+        <v>3504</v>
       </c>
       <c r="C120" t="n">
-        <v>28.03025436401367</v>
+        <v>1.999760150909424</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -2127,10 +2127,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4952</v>
+        <v>745</v>
       </c>
       <c r="C121" t="n">
-        <v>5.400463819503784</v>
+        <v>0.2582452297210693</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
@@ -2141,13 +2141,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>24649</v>
+        <v>3727</v>
       </c>
       <c r="C122" t="n">
-        <v>60.00367879867554</v>
+        <v>1.746082305908203</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -2155,13 +2155,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9728</v>
+        <v>26106</v>
       </c>
       <c r="C123" t="n">
-        <v>12.80791354179382</v>
+        <v>60.00500917434692</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2169,10 +2169,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>18610</v>
+        <v>10517</v>
       </c>
       <c r="C124" t="n">
-        <v>33.28308033943176</v>
+        <v>11.65313529968262</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -2183,10 +2183,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>24906</v>
+        <v>25214</v>
       </c>
       <c r="C125" t="n">
-        <v>60.00046515464783</v>
+        <v>60.00290274620056</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -2197,10 +2197,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>16082</v>
+        <v>4303</v>
       </c>
       <c r="C126" t="n">
-        <v>28.67532420158386</v>
+        <v>3.007611513137817</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -2211,10 +2211,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4547</v>
+        <v>1262</v>
       </c>
       <c r="C127" t="n">
-        <v>4.17451548576355</v>
+        <v>0.5637445449829102</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
@@ -2225,10 +2225,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>20670</v>
+        <v>5866</v>
       </c>
       <c r="C128" t="n">
-        <v>46.2043035030365</v>
+        <v>4.028760433197021</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -2239,10 +2239,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3606</v>
+        <v>3629</v>
       </c>
       <c r="C129" t="n">
-        <v>3.418613910675049</v>
+        <v>2.166686773300171</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -2253,10 +2253,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>13435</v>
+        <v>3641</v>
       </c>
       <c r="C130" t="n">
-        <v>20.81115365028381</v>
+        <v>2.227350473403931</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -2267,10 +2267,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5536</v>
+        <v>9169</v>
       </c>
       <c r="C131" t="n">
-        <v>5.027967929840088</v>
+        <v>10.29142379760742</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -2281,13 +2281,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>25187</v>
+        <v>2288</v>
       </c>
       <c r="C132" t="n">
-        <v>60.00395512580872</v>
+        <v>0.736778736114502</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -2295,10 +2295,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1553</v>
+        <v>7838</v>
       </c>
       <c r="C133" t="n">
-        <v>1.182457208633423</v>
+        <v>6.269149780273438</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -2309,10 +2309,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>10965</v>
+        <v>1147</v>
       </c>
       <c r="C134" t="n">
-        <v>15.06678771972656</v>
+        <v>0.3828873634338379</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -2323,10 +2323,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>7204</v>
+        <v>2492</v>
       </c>
       <c r="C135" t="n">
-        <v>8.180890321731567</v>
+        <v>1.721743106842041</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -2337,10 +2337,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4328</v>
+        <v>14912</v>
       </c>
       <c r="C136" t="n">
-        <v>4.320390939712524</v>
+        <v>25.4238498210907</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -2351,10 +2351,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9373</v>
+        <v>1029</v>
       </c>
       <c r="C137" t="n">
-        <v>9.824021339416504</v>
+        <v>0.3962762355804443</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -2365,10 +2365,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>6976</v>
+        <v>12974</v>
       </c>
       <c r="C138" t="n">
-        <v>8.485806226730347</v>
+        <v>17.48500752449036</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -2379,13 +2379,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11485</v>
+        <v>25555</v>
       </c>
       <c r="C139" t="n">
-        <v>14.69246363639832</v>
+        <v>60.00132536888123</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -2393,10 +2393,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>15002</v>
+        <v>5826</v>
       </c>
       <c r="C140" t="n">
-        <v>26.75413250923157</v>
+        <v>4.775183916091919</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -2407,10 +2407,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>18199</v>
+        <v>3509</v>
       </c>
       <c r="C141" t="n">
-        <v>36.93814444541931</v>
+        <v>1.973501443862915</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -2421,10 +2421,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>7749</v>
+        <v>4051</v>
       </c>
       <c r="C142" t="n">
-        <v>10.04924964904785</v>
+        <v>2.434374809265137</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -2435,10 +2435,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1866</v>
+        <v>2236</v>
       </c>
       <c r="C143" t="n">
-        <v>1.481106281280518</v>
+        <v>0.987722635269165</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -2449,10 +2449,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5502</v>
+        <v>8963</v>
       </c>
       <c r="C144" t="n">
-        <v>5.558027029037476</v>
+        <v>8.611688852310181</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -2463,10 +2463,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1968</v>
+        <v>5651</v>
       </c>
       <c r="C145" t="n">
-        <v>1.528909683227539</v>
+        <v>3.819227695465088</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -2477,10 +2477,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11842</v>
+        <v>15898</v>
       </c>
       <c r="C146" t="n">
-        <v>17.95382452011108</v>
+        <v>24.02742671966553</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -2491,10 +2491,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1591</v>
+        <v>3440</v>
       </c>
       <c r="C147" t="n">
-        <v>1.287243843078613</v>
+        <v>1.893076181411743</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -2505,10 +2505,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>8523</v>
+        <v>9353</v>
       </c>
       <c r="C148" t="n">
-        <v>9.649922370910645</v>
+        <v>9.305517911911011</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -2519,13 +2519,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>24619</v>
+        <v>16540</v>
       </c>
       <c r="C149" t="n">
-        <v>60.00628185272217</v>
+        <v>27.72230744361877</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -2533,10 +2533,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4426</v>
+        <v>3702</v>
       </c>
       <c r="C150" t="n">
-        <v>3.632890224456787</v>
+        <v>2.255652904510498</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -2547,13 +2547,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>23955</v>
+        <v>3764</v>
       </c>
       <c r="C151" t="n">
-        <v>60.00471472740173</v>
+        <v>2.236135721206665</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -2561,10 +2561,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>15354</v>
+        <v>5230</v>
       </c>
       <c r="C152" t="n">
-        <v>27.12175464630127</v>
+        <v>4.688547134399414</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -2575,10 +2575,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>2662</v>
+        <v>6228</v>
       </c>
       <c r="C153" t="n">
-        <v>2.069239854812622</v>
+        <v>4.747324466705322</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -2589,10 +2589,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>886</v>
+        <v>3491</v>
       </c>
       <c r="C154" t="n">
-        <v>0.7696754932403564</v>
+        <v>2.116340160369873</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -2603,13 +2603,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>24213</v>
+        <v>4557</v>
       </c>
       <c r="C155" t="n">
-        <v>60.00402355194092</v>
+        <v>3.36346173286438</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -2617,10 +2617,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>15171</v>
+        <v>1393</v>
       </c>
       <c r="C156" t="n">
-        <v>23.99947571754456</v>
+        <v>0.6486704349517822</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -2631,10 +2631,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>7454</v>
+        <v>4152</v>
       </c>
       <c r="C157" t="n">
-        <v>9.575026512145996</v>
+        <v>2.41569447517395</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -2645,10 +2645,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>14450</v>
+        <v>2525</v>
       </c>
       <c r="C158" t="n">
-        <v>24.11344456672668</v>
+        <v>0.9495813846588135</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
@@ -2659,10 +2659,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>9547</v>
+        <v>3591</v>
       </c>
       <c r="C159" t="n">
-        <v>12.95607733726501</v>
+        <v>1.869731903076172</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
@@ -2673,10 +2673,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1035</v>
+        <v>6862</v>
       </c>
       <c r="C160" t="n">
-        <v>0.7661514282226562</v>
+        <v>5.98238468170166</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -2687,10 +2687,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>18019</v>
+        <v>12851</v>
       </c>
       <c r="C161" t="n">
-        <v>25.59956407546997</v>
+        <v>9.533844709396362</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
@@ -2701,10 +2701,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>23894</v>
+        <v>6858</v>
       </c>
       <c r="C162" t="n">
-        <v>50.98746418952942</v>
+        <v>5.150264263153076</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
@@ -2715,10 +2715,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2673</v>
+        <v>1879</v>
       </c>
       <c r="C163" t="n">
-        <v>2.111481666564941</v>
+        <v>0.9529023170471191</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
@@ -2729,10 +2729,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>10053</v>
+        <v>3588</v>
       </c>
       <c r="C164" t="n">
-        <v>10.37256789207458</v>
+        <v>2.224061489105225</v>
       </c>
       <c r="D164" t="n">
         <v>1</v>
@@ -2743,10 +2743,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>15976</v>
+        <v>7698</v>
       </c>
       <c r="C165" t="n">
-        <v>27.29672718048096</v>
+        <v>7.017829895019531</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -2757,10 +2757,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>9466</v>
+        <v>2714</v>
       </c>
       <c r="C166" t="n">
-        <v>11.82552003860474</v>
+        <v>1.572695255279541</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
@@ -2771,10 +2771,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>20306</v>
+        <v>320</v>
       </c>
       <c r="C167" t="n">
-        <v>46.49520254135132</v>
+        <v>0.1202051639556885</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -2785,10 +2785,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>17435</v>
+        <v>6024</v>
       </c>
       <c r="C168" t="n">
-        <v>34.60987973213196</v>
+        <v>4.849347114562988</v>
       </c>
       <c r="D168" t="n">
         <v>1</v>
@@ -2799,10 +2799,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5175</v>
+        <v>4733</v>
       </c>
       <c r="C169" t="n">
-        <v>5.33473801612854</v>
+        <v>2.078632831573486</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -2813,10 +2813,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1030</v>
+        <v>6217</v>
       </c>
       <c r="C170" t="n">
-        <v>0.6987066268920898</v>
+        <v>4.938544273376465</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
@@ -2827,10 +2827,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4258</v>
+        <v>7493</v>
       </c>
       <c r="C171" t="n">
-        <v>4.357219457626343</v>
+        <v>6.979292869567871</v>
       </c>
       <c r="D171" t="n">
         <v>1</v>
@@ -2841,10 +2841,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>20025</v>
+        <v>6487</v>
       </c>
       <c r="C172" t="n">
-        <v>44.47800374031067</v>
+        <v>5.224421739578247</v>
       </c>
       <c r="D172" t="n">
         <v>1</v>
@@ -2855,10 +2855,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4165</v>
+        <v>2473</v>
       </c>
       <c r="C173" t="n">
-        <v>4.102007150650024</v>
+        <v>1.505780935287476</v>
       </c>
       <c r="D173" t="n">
         <v>1</v>
@@ -2869,10 +2869,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1294</v>
+        <v>1724</v>
       </c>
       <c r="C174" t="n">
-        <v>1.057529926300049</v>
+        <v>0.7638120651245117</v>
       </c>
       <c r="D174" t="n">
         <v>1</v>
@@ -2883,10 +2883,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>13483</v>
+        <v>2998</v>
       </c>
       <c r="C175" t="n">
-        <v>20.7210853099823</v>
+        <v>1.512568473815918</v>
       </c>
       <c r="D175" t="n">
         <v>1</v>
@@ -2897,10 +2897,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>17336</v>
+        <v>9452</v>
       </c>
       <c r="C176" t="n">
-        <v>33.74871492385864</v>
+        <v>9.790473461151123</v>
       </c>
       <c r="D176" t="n">
         <v>1</v>
@@ -2911,10 +2911,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3872</v>
+        <v>9651</v>
       </c>
       <c r="C177" t="n">
-        <v>2.874728441238403</v>
+        <v>8.911376714706421</v>
       </c>
       <c r="D177" t="n">
         <v>1</v>
@@ -2925,10 +2925,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>7226</v>
+        <v>1109</v>
       </c>
       <c r="C178" t="n">
-        <v>8.621113300323486</v>
+        <v>0.4606068134307861</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
@@ -2939,10 +2939,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>21259</v>
+        <v>7344</v>
       </c>
       <c r="C179" t="n">
-        <v>43.02991247177124</v>
+        <v>3.806559562683105</v>
       </c>
       <c r="D179" t="n">
         <v>1</v>
@@ -2953,10 +2953,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>6749</v>
+        <v>2797</v>
       </c>
       <c r="C180" t="n">
-        <v>7.940829515457153</v>
+        <v>1.332084178924561</v>
       </c>
       <c r="D180" t="n">
         <v>1</v>
@@ -2967,10 +2967,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1813</v>
+        <v>10338</v>
       </c>
       <c r="C181" t="n">
-        <v>1.1174156665802</v>
+        <v>11.88009285926819</v>
       </c>
       <c r="D181" t="n">
         <v>1</v>
@@ -2981,13 +2981,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>24476</v>
+        <v>6353</v>
       </c>
       <c r="C182" t="n">
-        <v>60.00556707382202</v>
+        <v>5.309545278549194</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2995,10 +2995,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>7760</v>
+        <v>8595</v>
       </c>
       <c r="C183" t="n">
-        <v>8.26631760597229</v>
+        <v>7.028247356414795</v>
       </c>
       <c r="D183" t="n">
         <v>1</v>
@@ -3009,10 +3009,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>11872</v>
+        <v>3112</v>
       </c>
       <c r="C184" t="n">
-        <v>18.21715593338013</v>
+        <v>1.497905015945435</v>
       </c>
       <c r="D184" t="n">
         <v>1</v>
@@ -3023,10 +3023,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>6794</v>
+        <v>3701</v>
       </c>
       <c r="C185" t="n">
-        <v>8.266458034515381</v>
+        <v>2.027366161346436</v>
       </c>
       <c r="D185" t="n">
         <v>1</v>
@@ -3037,10 +3037,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>7959</v>
+        <v>4531</v>
       </c>
       <c r="C186" t="n">
-        <v>10.3806848526001</v>
+        <v>2.822676658630371</v>
       </c>
       <c r="D186" t="n">
         <v>1</v>
@@ -3051,10 +3051,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>12997</v>
+        <v>550</v>
       </c>
       <c r="C187" t="n">
-        <v>21.26096439361572</v>
+        <v>0.2080566883087158</v>
       </c>
       <c r="D187" t="n">
         <v>1</v>
@@ -3065,10 +3065,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>11229</v>
+        <v>9756</v>
       </c>
       <c r="C188" t="n">
-        <v>16.9936192035675</v>
+        <v>10.74779772758484</v>
       </c>
       <c r="D188" t="n">
         <v>1</v>
@@ -3079,10 +3079,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>15724</v>
+        <v>8624</v>
       </c>
       <c r="C189" t="n">
-        <v>26.81581568717957</v>
+        <v>9.024158239364624</v>
       </c>
       <c r="D189" t="n">
         <v>1</v>
@@ -3093,10 +3093,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>7962</v>
+        <v>7767</v>
       </c>
       <c r="C190" t="n">
-        <v>9.587791442871094</v>
+        <v>6.701136827468872</v>
       </c>
       <c r="D190" t="n">
         <v>1</v>
@@ -3107,10 +3107,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>6997</v>
+        <v>13761</v>
       </c>
       <c r="C191" t="n">
-        <v>6.682341814041138</v>
+        <v>18.51025700569153</v>
       </c>
       <c r="D191" t="n">
         <v>1</v>
@@ -3121,10 +3121,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>629</v>
+        <v>2973</v>
       </c>
       <c r="C192" t="n">
-        <v>0.4291050434112549</v>
+        <v>1.298262596130371</v>
       </c>
       <c r="D192" t="n">
         <v>1</v>
@@ -3135,10 +3135,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>11090</v>
+        <v>3262</v>
       </c>
       <c r="C193" t="n">
-        <v>15.04794025421143</v>
+        <v>1.730854034423828</v>
       </c>
       <c r="D193" t="n">
         <v>1</v>
@@ -3149,10 +3149,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>14384</v>
+        <v>2561</v>
       </c>
       <c r="C194" t="n">
-        <v>24.17683720588684</v>
+        <v>1.106073617935181</v>
       </c>
       <c r="D194" t="n">
         <v>1</v>
@@ -3163,10 +3163,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>22108</v>
+        <v>3355</v>
       </c>
       <c r="C195" t="n">
-        <v>35.23516869544983</v>
+        <v>1.759443759918213</v>
       </c>
       <c r="D195" t="n">
         <v>1</v>
@@ -3177,10 +3177,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>22031</v>
+        <v>6480</v>
       </c>
       <c r="C196" t="n">
-        <v>52.19500136375427</v>
+        <v>5.063333034515381</v>
       </c>
       <c r="D196" t="n">
         <v>1</v>
@@ -3191,13 +3191,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>23724</v>
+        <v>6394</v>
       </c>
       <c r="C197" t="n">
-        <v>60.00531554222107</v>
+        <v>4.812201023101807</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -3205,10 +3205,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>6917</v>
+        <v>2318</v>
       </c>
       <c r="C198" t="n">
-        <v>7.918759107589722</v>
+        <v>0.901400089263916</v>
       </c>
       <c r="D198" t="n">
         <v>1</v>
@@ -3219,10 +3219,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>2302</v>
+        <v>3103</v>
       </c>
       <c r="C199" t="n">
-        <v>2.08891224861145</v>
+        <v>1.606194019317627</v>
       </c>
       <c r="D199" t="n">
         <v>1</v>
@@ -3233,10 +3233,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>7572</v>
+        <v>4717</v>
       </c>
       <c r="C200" t="n">
-        <v>10.07857990264893</v>
+        <v>2.803488492965698</v>
       </c>
       <c r="D200" t="n">
         <v>1</v>
@@ -3247,10 +3247,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>7771</v>
+        <v>3712</v>
       </c>
       <c r="C201" t="n">
-        <v>10.43932104110718</v>
+        <v>1.956302165985107</v>
       </c>
       <c r="D201" t="n">
         <v>1</v>
@@ -3294,13 +3294,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>314.5</v>
+        <v>160</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2145525217056274</v>
+        <v>0.06010258197784424</v>
       </c>
       <c r="C2" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
